--- a/code/classify/data/255710_result_color.xlsx
+++ b/code/classify/data/255710_result_color.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\code\classify\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D6E32-7FF4-4E0F-9B2F-372032815796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="255710_result" sheetId="1" r:id="rId1"/>
@@ -1362,7 +1363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2043,27 +2044,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2081,16 +2062,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2379,22 +2350,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="7"/>
+    <col min="1" max="4" width="8.625" style="7"/>
     <col min="5" max="5" width="255.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -2428,7 +2399,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -2445,7 +2416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -2462,7 +2433,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>0</v>
       </c>
@@ -2479,7 +2450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -2496,7 +2467,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>0</v>
       </c>
@@ -2513,7 +2484,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>0</v>
       </c>
@@ -2530,7 +2501,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -2547,7 +2518,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>0</v>
       </c>
@@ -2564,7 +2535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="252" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>0</v>
       </c>
@@ -2581,7 +2552,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>0</v>
       </c>
@@ -2598,7 +2569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>0</v>
       </c>
@@ -2615,7 +2586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>0</v>
       </c>
@@ -2632,7 +2603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>0</v>
       </c>
@@ -2649,7 +2620,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>0</v>
       </c>
@@ -2666,7 +2637,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>0</v>
       </c>
@@ -2683,7 +2654,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>0</v>
       </c>
@@ -2700,7 +2671,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>0</v>
       </c>
@@ -2717,7 +2688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>0</v>
       </c>
@@ -2734,7 +2705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="150" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>0</v>
       </c>
@@ -2751,7 +2722,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>0</v>
       </c>
@@ -2768,7 +2739,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>0</v>
       </c>
@@ -2785,7 +2756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>0</v>
       </c>
@@ -2802,7 +2773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>0</v>
       </c>
@@ -2819,7 +2790,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="360" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" ht="375" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>0</v>
       </c>
@@ -2836,7 +2807,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="324" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" ht="337.5" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>0</v>
       </c>
@@ -2853,7 +2824,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>0</v>
       </c>
@@ -2870,7 +2841,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>0</v>
       </c>
@@ -2887,7 +2858,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>1</v>
       </c>
@@ -2904,7 +2875,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="126" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -2921,7 +2892,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="288" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" ht="300" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>1</v>
       </c>
@@ -2938,7 +2909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -2955,7 +2926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>1</v>
       </c>
@@ -2972,7 +2943,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>1</v>
       </c>
@@ -2989,7 +2960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>1</v>
       </c>
@@ -3006,7 +2977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="306" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -3023,7 +2994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A38" s="7">
         <v>1</v>
       </c>
@@ -3040,7 +3011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="234" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -3057,7 +3028,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
         <v>1</v>
       </c>
@@ -3074,7 +3045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -3091,7 +3062,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="7">
         <v>1</v>
       </c>
@@ -3108,7 +3079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="7">
         <v>1</v>
       </c>
@@ -3125,7 +3096,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -3142,7 +3113,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="7">
         <v>1</v>
       </c>
@@ -3159,7 +3130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A46" s="7">
         <v>1</v>
       </c>
@@ -3176,7 +3147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -3193,7 +3164,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" ht="150" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
         <v>1</v>
       </c>
@@ -3210,7 +3181,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="7">
         <v>1</v>
       </c>
@@ -3227,7 +3198,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="7">
         <v>2</v>
       </c>
@@ -3244,7 +3215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="7">
         <v>2</v>
       </c>
@@ -3261,7 +3232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="162" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A52" s="7">
         <v>2</v>
       </c>
@@ -3278,7 +3249,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A53" s="7">
         <v>2</v>
       </c>
@@ -3295,7 +3266,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="180" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A54" s="7">
         <v>2</v>
       </c>
@@ -3312,7 +3283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A55" s="7">
         <v>2</v>
       </c>
@@ -3329,7 +3300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="234" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A56" s="7">
         <v>2</v>
       </c>
@@ -3346,7 +3317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" ht="225" x14ac:dyDescent="0.4">
       <c r="A57" s="7">
         <v>2</v>
       </c>
@@ -3363,7 +3334,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" s="7">
         <v>2</v>
       </c>
@@ -3380,7 +3351,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="306" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A59" s="7">
         <v>2</v>
       </c>
@@ -3397,7 +3368,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="252" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A60" s="7">
         <v>2</v>
       </c>
@@ -3414,7 +3385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="324" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" ht="337.5" x14ac:dyDescent="0.4">
       <c r="A61" s="7">
         <v>2</v>
       </c>
@@ -3431,7 +3402,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A62" s="7">
         <v>2</v>
       </c>
@@ -3448,7 +3419,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="234" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A63" s="7">
         <v>2</v>
       </c>
@@ -3465,7 +3436,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="180" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A64" s="7">
         <v>2</v>
       </c>
@@ -3482,7 +3453,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="7">
         <v>2</v>
       </c>
@@ -3499,7 +3470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="7">
         <v>2</v>
       </c>
@@ -3516,7 +3487,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="7">
         <v>2</v>
       </c>
@@ -3533,7 +3504,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="7">
         <v>2</v>
       </c>
@@ -3550,7 +3521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="7">
         <v>2</v>
       </c>
@@ -3567,7 +3538,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="7">
         <v>2</v>
       </c>
@@ -3584,7 +3555,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="7">
         <v>2</v>
       </c>
@@ -3601,7 +3572,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A72" s="7">
         <v>2</v>
       </c>
@@ -3618,7 +3589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="7">
         <v>2</v>
       </c>
@@ -3635,7 +3606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="7">
         <v>2</v>
       </c>
@@ -3652,7 +3623,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A75" s="7">
         <v>2</v>
       </c>
@@ -3669,7 +3640,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="7">
         <v>2</v>
       </c>
@@ -3686,7 +3657,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="7">
         <v>2</v>
       </c>
@@ -3703,7 +3674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
         <v>2</v>
       </c>
@@ -3720,7 +3691,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A79" s="7">
         <v>2</v>
       </c>
@@ -3737,7 +3708,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="180" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A80" s="7">
         <v>2</v>
       </c>
@@ -3754,7 +3725,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="7">
         <v>2</v>
       </c>
@@ -3771,7 +3742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="7">
         <v>2</v>
       </c>
@@ -3788,7 +3759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="7">
         <v>2</v>
       </c>
@@ -3805,7 +3776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="7">
         <v>2</v>
       </c>
@@ -3822,7 +3793,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="7">
         <v>2</v>
       </c>
@@ -3839,7 +3810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="7">
         <v>2</v>
       </c>
@@ -3856,7 +3827,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="7">
         <v>2</v>
       </c>
@@ -3873,7 +3844,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="7">
         <v>2</v>
       </c>
@@ -3890,7 +3861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="7">
         <v>2</v>
       </c>
@@ -3907,7 +3878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A90" s="7">
         <v>2</v>
       </c>
@@ -3924,7 +3895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="7">
         <v>2</v>
       </c>
@@ -3941,7 +3912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A92" s="7">
         <v>2</v>
       </c>
@@ -3958,7 +3929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="7">
         <v>2</v>
       </c>
@@ -3975,7 +3946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="7">
         <v>2</v>
       </c>
@@ -3992,7 +3963,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A95" s="7">
         <v>2</v>
       </c>
@@ -4009,7 +3980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="7">
         <v>2</v>
       </c>
@@ -4026,7 +3997,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="7">
         <v>2</v>
       </c>
@@ -4043,7 +4014,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A98" s="7">
         <v>2</v>
       </c>
@@ -4060,7 +4031,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="7">
         <v>2</v>
       </c>
@@ -4077,7 +4048,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="7">
         <v>2</v>
       </c>
@@ -4094,7 +4065,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="7">
         <v>2</v>
       </c>
@@ -4111,7 +4082,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="7">
         <v>2</v>
       </c>
@@ -4128,7 +4099,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="7">
         <v>2</v>
       </c>
@@ -4145,7 +4116,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="7">
         <v>2</v>
       </c>
@@ -4162,7 +4133,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="7">
         <v>2</v>
       </c>
@@ -4179,7 +4150,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="7">
         <v>2</v>
       </c>
@@ -4196,7 +4167,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="7">
         <v>2</v>
       </c>
@@ -4213,7 +4184,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="7">
         <v>2</v>
       </c>
@@ -4230,7 +4201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="7">
         <v>2</v>
       </c>
@@ -4247,7 +4218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="7">
         <v>2</v>
       </c>
@@ -4264,7 +4235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="7">
         <v>2</v>
       </c>
@@ -4281,7 +4252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="7">
         <v>2</v>
       </c>
@@ -4298,7 +4269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="7">
         <v>2</v>
       </c>
@@ -4315,7 +4286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="7">
         <v>2</v>
       </c>
@@ -4332,7 +4303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="7">
         <v>2</v>
       </c>
@@ -4349,7 +4320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="7">
         <v>2</v>
       </c>
@@ -4366,7 +4337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="7">
         <v>2</v>
       </c>
@@ -4383,7 +4354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="7">
         <v>2</v>
       </c>
@@ -4400,7 +4371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="7">
         <v>2</v>
       </c>
@@ -4417,7 +4388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="7">
         <v>2</v>
       </c>
@@ -4434,7 +4405,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="7">
         <v>2</v>
       </c>
@@ -4451,7 +4422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="7">
         <v>2</v>
       </c>
@@ -4468,7 +4439,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="7">
         <v>2</v>
       </c>
@@ -4485,7 +4456,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="7">
         <v>2</v>
       </c>
@@ -4502,7 +4473,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="7">
         <v>2</v>
       </c>
@@ -4519,7 +4490,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A126" s="7">
         <v>2</v>
       </c>
@@ -4536,7 +4507,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="7">
         <v>2</v>
       </c>
@@ -4553,7 +4524,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="7">
         <v>2</v>
       </c>
@@ -4570,7 +4541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="7">
         <v>2</v>
       </c>
@@ -4587,7 +4558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="7">
         <v>2</v>
       </c>
@@ -4604,7 +4575,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="7">
         <v>2</v>
       </c>
@@ -4621,7 +4592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="7">
         <v>2</v>
       </c>
@@ -4638,7 +4609,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="7">
         <v>2</v>
       </c>
@@ -4655,7 +4626,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="7">
         <v>2</v>
       </c>
@@ -4672,7 +4643,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="7">
         <v>2</v>
       </c>
@@ -4689,7 +4660,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="7">
         <v>2</v>
       </c>
@@ -4706,7 +4677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="7">
         <v>2</v>
       </c>
@@ -4723,7 +4694,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A138" s="7">
         <v>2</v>
       </c>
@@ -4740,7 +4711,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="7">
         <v>2</v>
       </c>
@@ -4757,7 +4728,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="7">
         <v>2</v>
       </c>
@@ -4774,7 +4745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="7">
         <v>2</v>
       </c>
@@ -4791,7 +4762,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="7">
         <v>2</v>
       </c>
@@ -4808,7 +4779,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="7">
         <v>2</v>
       </c>
@@ -4825,7 +4796,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="7">
         <v>2</v>
       </c>
@@ -4842,7 +4813,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="7">
         <v>2</v>
       </c>
@@ -4859,7 +4830,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="7">
         <v>2</v>
       </c>
@@ -4876,7 +4847,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="7">
         <v>2</v>
       </c>
@@ -4893,7 +4864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="7">
         <v>2</v>
       </c>
@@ -4910,7 +4881,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="7">
         <v>2</v>
       </c>
@@ -4927,7 +4898,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="7">
         <v>2</v>
       </c>
@@ -4944,7 +4915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="7">
         <v>2</v>
       </c>
@@ -4961,7 +4932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="7">
         <v>2</v>
       </c>
@@ -4978,7 +4949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="7">
         <v>2</v>
       </c>
@@ -4995,7 +4966,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="7">
         <v>2</v>
       </c>
@@ -5012,7 +4983,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="7">
         <v>2</v>
       </c>
@@ -5029,7 +5000,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="7">
         <v>2</v>
       </c>
@@ -5046,7 +5017,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A157" s="7">
         <v>2</v>
       </c>
@@ -5063,7 +5034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="7">
         <v>2</v>
       </c>
@@ -5080,7 +5051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A159" s="7">
         <v>2</v>
       </c>
@@ -5097,7 +5068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="7">
         <v>2</v>
       </c>
@@ -5114,7 +5085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A161" s="7">
         <v>2</v>
       </c>
@@ -5131,7 +5102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="7">
         <v>2</v>
       </c>
@@ -5148,7 +5119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A163" s="7">
         <v>2</v>
       </c>
@@ -5165,7 +5136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="7">
         <v>2</v>
       </c>
@@ -5182,7 +5153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A165" s="7">
         <v>2</v>
       </c>
@@ -5199,7 +5170,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="7">
         <v>2</v>
       </c>
@@ -5216,7 +5187,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="7">
         <v>2</v>
       </c>
@@ -5233,7 +5204,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="7">
         <v>2</v>
       </c>
@@ -5250,7 +5221,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="7">
         <v>2</v>
       </c>
@@ -5267,7 +5238,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="342" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A170" s="7">
         <v>2</v>
       </c>
@@ -5284,7 +5255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="7">
         <v>2</v>
       </c>
@@ -5301,7 +5272,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A172" s="7">
         <v>2</v>
       </c>
@@ -5318,7 +5289,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="7">
         <v>2</v>
       </c>
@@ -5335,7 +5306,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="7">
         <v>2</v>
       </c>
@@ -5352,7 +5323,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A175" s="7">
         <v>2</v>
       </c>
@@ -5369,7 +5340,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="7">
         <v>2</v>
       </c>
@@ -5386,7 +5357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="7">
         <v>2</v>
       </c>
@@ -5403,7 +5374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="7">
         <v>2</v>
       </c>
@@ -5420,7 +5391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="7">
         <v>2</v>
       </c>
@@ -5437,7 +5408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="7">
         <v>2</v>
       </c>
@@ -5454,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="7">
         <v>2</v>
       </c>
@@ -5471,7 +5442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="7">
         <v>2</v>
       </c>
@@ -5488,7 +5459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="7">
         <v>2</v>
       </c>
@@ -5505,7 +5476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="7">
         <v>2</v>
       </c>
@@ -5522,7 +5493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A185" s="7">
         <v>2</v>
       </c>
@@ -5539,7 +5510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="7">
         <v>2</v>
       </c>
@@ -5556,7 +5527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="7">
         <v>2</v>
       </c>
@@ -5573,7 +5544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="7">
         <v>2</v>
       </c>
@@ -5590,7 +5561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="7">
         <v>2</v>
       </c>
@@ -5607,7 +5578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="7">
         <v>2</v>
       </c>
@@ -5624,7 +5595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="7">
         <v>2</v>
       </c>
@@ -5641,7 +5612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="7">
         <v>2</v>
       </c>
@@ -5658,7 +5629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="7">
         <v>2</v>
       </c>
@@ -5675,7 +5646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="7">
         <v>2</v>
       </c>
@@ -5692,7 +5663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="7">
         <v>2</v>
       </c>
@@ -5709,7 +5680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="7">
         <v>2</v>
       </c>
@@ -5726,7 +5697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="198" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A197" s="7">
         <v>2</v>
       </c>
@@ -5743,7 +5714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="7">
         <v>2</v>
       </c>
@@ -5760,7 +5731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A199" s="7">
         <v>2</v>
       </c>
@@ -5777,7 +5748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="7">
         <v>2</v>
       </c>
@@ -5794,7 +5765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="7">
         <v>2</v>
       </c>
@@ -5811,7 +5782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="7">
         <v>2</v>
       </c>
@@ -5828,7 +5799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A203" s="7">
         <v>2</v>
       </c>
@@ -5845,7 +5816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="7">
         <v>2</v>
       </c>
@@ -5862,7 +5833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="7">
         <v>2</v>
       </c>
@@ -5879,7 +5850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="7">
         <v>2</v>
       </c>
@@ -5896,7 +5867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="7">
         <v>2</v>
       </c>
@@ -5913,7 +5884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="7">
         <v>2</v>
       </c>
@@ -5930,7 +5901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="7">
         <v>2</v>
       </c>
@@ -5947,7 +5918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="7">
         <v>2</v>
       </c>
@@ -5964,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="7">
         <v>2</v>
       </c>
@@ -5981,7 +5952,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="7">
         <v>2</v>
       </c>
@@ -5998,7 +5969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="7">
         <v>2</v>
       </c>
@@ -6015,7 +5986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A214" s="7">
         <v>2</v>
       </c>
@@ -6032,7 +6003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="7">
         <v>2</v>
       </c>
@@ -6049,7 +6020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="7">
         <v>2</v>
       </c>
@@ -6066,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="7">
         <v>2</v>
       </c>
@@ -6083,7 +6054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="7">
         <v>2</v>
       </c>
@@ -6100,7 +6071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="7">
         <v>2</v>
       </c>
@@ -6117,7 +6088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="7">
         <v>2</v>
       </c>
@@ -6134,7 +6105,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="7">
         <v>2</v>
       </c>
@@ -6151,7 +6122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="7">
         <v>2</v>
       </c>
@@ -6168,7 +6139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="7">
         <v>2</v>
       </c>
@@ -6185,7 +6156,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="7">
         <v>2</v>
       </c>
@@ -6202,7 +6173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="7">
         <v>2</v>
       </c>
@@ -6219,7 +6190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="7">
         <v>2</v>
       </c>
@@ -6236,7 +6207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="7">
         <v>2</v>
       </c>
@@ -6253,7 +6224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="7">
         <v>2</v>
       </c>
@@ -6270,7 +6241,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="7">
         <v>2</v>
       </c>
@@ -6287,7 +6258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="7">
         <v>2</v>
       </c>
@@ -6304,7 +6275,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A231" s="7">
         <v>2</v>
       </c>
@@ -6321,7 +6292,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="7">
         <v>2</v>
       </c>
@@ -6338,7 +6309,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="7">
         <v>2</v>
       </c>
@@ -6355,7 +6326,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="7">
         <v>2</v>
       </c>
@@ -6372,7 +6343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="7">
         <v>2</v>
       </c>
@@ -6389,7 +6360,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="180" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A236" s="7">
         <v>2</v>
       </c>
@@ -6406,7 +6377,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="7">
         <v>2</v>
       </c>
@@ -6423,7 +6394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="7">
         <v>2</v>
       </c>
@@ -6440,7 +6411,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="7">
         <v>2</v>
       </c>
@@ -6457,7 +6428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A240" s="7">
         <v>2</v>
       </c>
@@ -6474,7 +6445,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="7">
         <v>2</v>
       </c>
@@ -6491,7 +6462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A242" s="7">
         <v>2</v>
       </c>
@@ -6508,7 +6479,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="7">
         <v>2</v>
       </c>
@@ -6525,7 +6496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="7">
         <v>2</v>
       </c>
@@ -6542,7 +6513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="252" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:5" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A245" s="7">
         <v>2</v>
       </c>
@@ -6559,7 +6530,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" s="7">
         <v>2</v>
       </c>
@@ -6576,7 +6547,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" s="7">
         <v>2</v>
       </c>
@@ -6593,7 +6564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" s="7">
         <v>2</v>
       </c>
@@ -6610,7 +6581,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" s="7">
         <v>2</v>
       </c>
@@ -6627,7 +6598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" s="7">
         <v>2</v>
       </c>
@@ -6644,7 +6615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="7">
         <v>2</v>
       </c>
@@ -6661,7 +6632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" s="7">
         <v>2</v>
       </c>
@@ -6678,7 +6649,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" s="7">
         <v>2</v>
       </c>
@@ -6695,7 +6666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" s="7">
         <v>2</v>
       </c>
@@ -6712,7 +6683,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A255" s="7">
         <v>2</v>
       </c>
@@ -6729,7 +6700,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A256" s="7">
         <v>2</v>
       </c>
@@ -6746,7 +6717,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="7">
         <v>2</v>
       </c>
@@ -6763,7 +6734,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A258" s="7">
         <v>2</v>
       </c>
@@ -6780,7 +6751,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" s="7">
         <v>2</v>
       </c>
@@ -6797,7 +6768,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" s="7">
         <v>2</v>
       </c>
@@ -6814,7 +6785,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" s="7">
         <v>2</v>
       </c>
@@ -6831,7 +6802,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" s="7">
         <v>2</v>
       </c>
@@ -6848,7 +6819,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" s="7">
         <v>2</v>
       </c>
@@ -6865,7 +6836,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" s="7">
         <v>2</v>
       </c>
@@ -6882,7 +6853,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" s="7">
         <v>2</v>
       </c>
@@ -6899,7 +6870,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" s="7">
         <v>2</v>
       </c>
@@ -6916,7 +6887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" s="7">
         <v>2</v>
       </c>
@@ -6933,7 +6904,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A268" s="7">
         <v>2</v>
       </c>
@@ -6950,7 +6921,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" s="7">
         <v>2</v>
       </c>
@@ -6967,7 +6938,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" s="7">
         <v>2</v>
       </c>
@@ -6984,7 +6955,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" s="7">
         <v>2</v>
       </c>
@@ -7001,7 +6972,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A272" s="7">
         <v>2</v>
       </c>
@@ -7018,7 +6989,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A273" s="7">
         <v>2</v>
       </c>
@@ -7035,7 +7006,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" s="7">
         <v>2</v>
       </c>
@@ -7052,7 +7023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" s="7">
         <v>2</v>
       </c>
@@ -7069,7 +7040,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" s="7">
         <v>2</v>
       </c>
@@ -7086,7 +7057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" s="7">
         <v>2</v>
       </c>
@@ -7103,7 +7074,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A278" s="7">
         <v>2</v>
       </c>
@@ -7120,7 +7091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A279" s="7">
         <v>2</v>
       </c>
@@ -7137,7 +7108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A280" s="7">
         <v>2</v>
       </c>
@@ -7154,7 +7125,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" s="7">
         <v>2</v>
       </c>
@@ -7171,7 +7142,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" s="7">
         <v>2</v>
       </c>
@@ -7188,7 +7159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A283" s="7">
         <v>2</v>
       </c>
@@ -7205,7 +7176,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" s="7">
         <v>2</v>
       </c>
@@ -7222,7 +7193,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" s="7">
         <v>2</v>
       </c>
@@ -7239,7 +7210,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" s="7">
         <v>2</v>
       </c>
@@ -7256,7 +7227,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" s="7">
         <v>2</v>
       </c>
@@ -7273,7 +7244,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" s="7">
         <v>2</v>
       </c>
@@ -7290,7 +7261,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" s="7">
         <v>2</v>
       </c>
@@ -7307,7 +7278,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A290" s="7">
         <v>2</v>
       </c>
@@ -7324,7 +7295,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" s="7">
         <v>2</v>
       </c>
@@ -7341,7 +7312,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" s="7">
         <v>2</v>
       </c>
@@ -7358,7 +7329,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" s="7">
         <v>2</v>
       </c>
@@ -7375,7 +7346,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" s="7">
         <v>2</v>
       </c>
@@ -7392,7 +7363,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" s="7">
         <v>2</v>
       </c>
@@ -7409,7 +7380,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" s="7">
         <v>2</v>
       </c>
@@ -7426,7 +7397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" s="7">
         <v>2</v>
       </c>
@@ -7443,7 +7414,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" s="7">
         <v>2</v>
       </c>
@@ -7460,7 +7431,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" s="7">
         <v>2</v>
       </c>
@@ -7477,7 +7448,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" s="7">
         <v>2</v>
       </c>
@@ -7494,7 +7465,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A301" s="7">
         <v>2</v>
       </c>
@@ -7511,7 +7482,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" s="7">
         <v>2</v>
       </c>
@@ -7528,7 +7499,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" s="7">
         <v>2</v>
       </c>
@@ -7545,7 +7516,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A304" s="7">
         <v>2</v>
       </c>
@@ -7562,7 +7533,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" s="7">
         <v>2</v>
       </c>
@@ -7579,7 +7550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A306" s="7">
         <v>2</v>
       </c>
@@ -7596,7 +7567,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" s="7">
         <v>2</v>
       </c>
@@ -7613,7 +7584,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" s="7">
         <v>2</v>
       </c>
@@ -7630,7 +7601,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" s="7">
         <v>2</v>
       </c>
@@ -7647,7 +7618,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" s="7">
         <v>2</v>
       </c>
@@ -7664,7 +7635,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" s="7">
         <v>2</v>
       </c>
@@ -7681,7 +7652,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="126" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:5" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A312" s="7">
         <v>2</v>
       </c>
@@ -7698,7 +7669,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" s="7">
         <v>2</v>
       </c>
@@ -7715,7 +7686,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" s="7">
         <v>2</v>
       </c>
@@ -7732,7 +7703,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" s="7">
         <v>2</v>
       </c>
@@ -7749,7 +7720,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A316" s="7">
         <v>2</v>
       </c>
@@ -7766,7 +7737,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" s="7">
         <v>2</v>
       </c>
@@ -7783,7 +7754,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" s="7">
         <v>2</v>
       </c>
@@ -7800,7 +7771,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" s="7">
         <v>2</v>
       </c>
@@ -7817,7 +7788,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" s="7">
         <v>2</v>
       </c>
@@ -7834,7 +7805,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="A321" s="7">
         <v>2</v>
       </c>
@@ -7851,7 +7822,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" s="7">
         <v>2</v>
       </c>
@@ -7868,7 +7839,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" s="7">
         <v>2</v>
       </c>
@@ -7885,7 +7856,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A324" s="7">
         <v>2</v>
       </c>
@@ -7902,7 +7873,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" s="7">
         <v>2</v>
       </c>
@@ -7919,7 +7890,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" s="7">
         <v>2</v>
       </c>
@@ -7936,7 +7907,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" s="7">
         <v>2</v>
       </c>
@@ -7953,7 +7924,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" s="7">
         <v>2</v>
       </c>
@@ -7970,7 +7941,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" s="7">
         <v>2</v>
       </c>
@@ -7987,7 +7958,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" s="7">
         <v>2</v>
       </c>
@@ -8004,7 +7975,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" s="7">
         <v>2</v>
       </c>
@@ -8021,7 +7992,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" s="7">
         <v>2</v>
       </c>
@@ -8038,7 +8009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" s="7">
         <v>2</v>
       </c>
@@ -8055,7 +8026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" s="7">
         <v>2</v>
       </c>
@@ -8072,7 +8043,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" s="7">
         <v>2</v>
       </c>
@@ -8089,7 +8060,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" s="7">
         <v>2</v>
       </c>
@@ -8106,7 +8077,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A337" s="7">
         <v>2</v>
       </c>
@@ -8123,7 +8094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338" s="7">
         <v>2</v>
       </c>
@@ -8140,7 +8111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A339" s="7">
         <v>2</v>
       </c>
@@ -8157,7 +8128,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A340" s="7">
         <v>2</v>
       </c>
@@ -8174,7 +8145,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A341" s="7">
         <v>2</v>
       </c>
@@ -8191,7 +8162,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A342" s="7">
         <v>2</v>
       </c>
@@ -8208,7 +8179,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A343" s="7">
         <v>2</v>
       </c>
@@ -8225,7 +8196,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A344" s="7">
         <v>2</v>
       </c>
@@ -8242,7 +8213,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A345" s="7">
         <v>2</v>
       </c>
@@ -8259,7 +8230,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A346" s="7">
         <v>2</v>
       </c>
@@ -8276,7 +8247,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A347" s="7">
         <v>2</v>
       </c>
@@ -8293,7 +8264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A348" s="7">
         <v>2</v>
       </c>
@@ -8310,7 +8281,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A349" s="7">
         <v>2</v>
       </c>
@@ -8327,7 +8298,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A350" s="7">
         <v>2</v>
       </c>
@@ -8344,7 +8315,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A351" s="7">
         <v>2</v>
       </c>
@@ -8361,7 +8332,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A352" s="7">
         <v>2</v>
       </c>
@@ -8378,7 +8349,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A353" s="7">
         <v>2</v>
       </c>
@@ -8395,7 +8366,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A354" s="7">
         <v>2</v>
       </c>
@@ -8413,7 +8384,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D354"/>
+  <autoFilter ref="A1:D354" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:E354">
     <sortCondition ref="A2:A354"/>
     <sortCondition ref="B2:B354"/>
@@ -8422,13 +8393,13 @@
   </sortState>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
